--- a/Results/IBA Mock/Mock 2.xlsx
+++ b/Results/IBA Mock/Mock 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VH Website\vh-website\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VH Website\vh-website\Results\IBA Mock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB76E60-6F27-4F35-8EC5-BF47112458A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A99D58D-4D57-463F-9558-4D3D308843C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26"/>
+      <selection activeCell="I19" sqref="I19:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1247,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I19" si="2">G2*1 + H2*($Z$6)</f>
+        <f t="shared" ref="I2:I25" si="2">G2*1 + H2*($Z$6)</f>
         <v>0.75</v>
       </c>
       <c r="J2">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q31" si="8">_xlfn.RANK.EQ(P2, $P$2:$P$1000, 0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R2" s="10">
         <v>21.5</v>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="W3">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X3" t="s">
         <v>27</v>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="Q4">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R4" s="10">
         <v>12</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20:I31" si="13">G20*1 + H20*(T24)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J20">
@@ -2467,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <f t="shared" ref="M20:M31" si="14">K20*1 + L20*(-0.25)</f>
+        <f t="shared" ref="M20:M31" si="13">K20*1 + L20*(-0.25)</f>
         <v>0</v>
       </c>
       <c r="N20">
@@ -2527,12 +2527,12 @@
         <v>4</v>
       </c>
       <c r="I21">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K21">
         <v>5</v>
@@ -2541,7 +2541,7 @@
         <v>4</v>
       </c>
       <c r="M21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="N21">
@@ -2550,11 +2550,11 @@
       </c>
       <c r="O21">
         <f t="shared" si="6"/>
-        <v>15.25</v>
+        <v>14.25</v>
       </c>
       <c r="P21">
         <f t="shared" si="7"/>
-        <v>21.785714285714285</v>
+        <v>20.357142857142858</v>
       </c>
       <c r="Q21">
         <f t="shared" si="8"/>
@@ -2568,7 +2568,7 @@
       <c r="U21" s="11"/>
       <c r="V21">
         <f t="shared" si="11"/>
-        <v>33.75</v>
+        <v>32.75</v>
       </c>
       <c r="W21">
         <f t="shared" si="10"/>
@@ -2603,12 +2603,12 @@
         <v>5</v>
       </c>
       <c r="I22">
-        <f t="shared" si="13"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>2.75</v>
       </c>
       <c r="J22">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K22">
         <v>5</v>
@@ -2617,7 +2617,7 @@
         <v>5</v>
       </c>
       <c r="M22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>3.75</v>
       </c>
       <c r="N22">
@@ -2626,15 +2626,15 @@
       </c>
       <c r="O22">
         <f t="shared" si="6"/>
-        <v>14.75</v>
+        <v>13.5</v>
       </c>
       <c r="P22">
         <f t="shared" si="7"/>
-        <v>21.071428571428573</v>
+        <v>19.285714285714288</v>
       </c>
       <c r="Q22">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R22" s="10">
         <v>10</v>
@@ -2644,11 +2644,11 @@
       <c r="U22" s="11"/>
       <c r="V22">
         <f t="shared" si="11"/>
-        <v>24.75</v>
+        <v>23.5</v>
       </c>
       <c r="W22">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="43.8" customHeight="1" thickBot="1">
@@ -2679,12 +2679,12 @@
         <v>5</v>
       </c>
       <c r="I23">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-1.25</v>
       </c>
       <c r="J23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -2693,7 +2693,7 @@
         <v>2</v>
       </c>
       <c r="M23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1.5</v>
       </c>
       <c r="N23">
@@ -2702,11 +2702,11 @@
       </c>
       <c r="O23">
         <f t="shared" si="6"/>
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="P23">
         <f t="shared" si="7"/>
-        <v>6.0714285714285712</v>
+        <v>4.2857142857142856</v>
       </c>
       <c r="Q23">
         <f t="shared" si="8"/>
@@ -2720,7 +2720,7 @@
       <c r="U23" s="11"/>
       <c r="V23">
         <f t="shared" si="11"/>
-        <v>17.25</v>
+        <v>16</v>
       </c>
       <c r="W23">
         <f t="shared" si="10"/>
@@ -2755,12 +2755,12 @@
         <v>4</v>
       </c>
       <c r="I24">
-        <f t="shared" si="13"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
       <c r="J24">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K24">
         <v>8</v>
@@ -2769,7 +2769,7 @@
         <v>6</v>
       </c>
       <c r="M24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>6.5</v>
       </c>
       <c r="N24">
@@ -2778,11 +2778,11 @@
       </c>
       <c r="O24">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P24">
         <f t="shared" si="7"/>
-        <v>42.857142857142854</v>
+        <v>41.428571428571431</v>
       </c>
       <c r="Q24">
         <f t="shared" si="8"/>
@@ -2796,7 +2796,7 @@
       <c r="U24" s="11"/>
       <c r="V24">
         <f t="shared" si="11"/>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W24">
         <f t="shared" si="10"/>
@@ -2831,12 +2831,12 @@
         <v>5</v>
       </c>
       <c r="I25">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>3.75</v>
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K25">
         <v>7</v>
@@ -2845,7 +2845,7 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>6.75</v>
       </c>
       <c r="N25">
@@ -2854,11 +2854,11 @@
       </c>
       <c r="O25">
         <f t="shared" si="6"/>
-        <v>25.25</v>
+        <v>24</v>
       </c>
       <c r="P25">
         <f t="shared" si="7"/>
-        <v>36.071428571428569</v>
+        <v>34.285714285714285</v>
       </c>
       <c r="Q25">
         <f t="shared" si="8"/>
@@ -2872,7 +2872,7 @@
       <c r="U25" s="11"/>
       <c r="V25">
         <f t="shared" si="11"/>
-        <v>47.75</v>
+        <v>46.5</v>
       </c>
       <c r="W25">
         <f t="shared" si="10"/>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="I20:I31" si="14">G26*1 + H26*(T30)</f>
         <v>0</v>
       </c>
       <c r="J26">
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N26">
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J27">
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N27">
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J28">
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N28">
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J29">
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N29">
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J30">
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N30">
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J31">
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N31">
